--- a/core/name_dictionary.xlsx
+++ b/core/name_dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liu_Lei\PycharmProjects\global_financial_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liu_Lei\PycharmProjects\global_financial_data\core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4EBFA0-D339-4E30-B472-CA22D2824F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CCA402-A081-429E-82E7-B75789E75C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" tabRatio="715" activeTab="5" xr2:uid="{2425A6B8-B0A2-4A05-9503-547A357F2750}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" tabRatio="715" firstSheet="2" activeTab="8" xr2:uid="{2425A6B8-B0A2-4A05-9503-547A357F2750}"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="6" r:id="rId1"/>
@@ -6984,7 +6984,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A205D380-5DF3-4816-B9DC-1BCEBB4ECC40}">
   <dimension ref="A1:C127"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
@@ -10570,9 +10572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD7FB30-2585-43F4-9B3D-AE1F3EB6A8BB}">
   <dimension ref="A1:C134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
@@ -12226,9 +12226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A572090-EEDA-4392-B615-A17AB5F3F435}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
